--- a/data/trans_camb/P19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 7,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 2,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; 3,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 9,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 0,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 7,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 2,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 0,27</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,46%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; 80,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,52; 31,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,91; 40,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,31; 156,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,44; 79,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,81; 14,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,9; 96,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,24; 34,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,18; 4,25</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 8,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 4,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 2,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 4,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 1,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 5,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 3,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 0,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 75,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,28; 37,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,84; 17,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,29; 53,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,76; 53,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,29; 15,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 54,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,19; 33,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,51; 7,67</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 9,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; -0,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,33; -2,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 5,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,05; 1,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; -0,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 6,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; -0,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; -2,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,04%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 56,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,82; -1,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,76; -14,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,77; 46,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,06; 13,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,21; -7,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 44,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,64; -1,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,22; -18,09</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,79</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,7; 2,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; -3,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,09; -8,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 3,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,19; -3,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; -6,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,87; 1,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; -5,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,48; -8,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,34%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,67; 11,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,53; -11,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,43; -37,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,41; 18,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,62; -21,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,95; -38,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,23; 7,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; -22,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,34; -40,6</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 12,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 7,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; -0,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 8,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,98; -1,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,72; -1,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 8,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; 1,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; -2,15</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,37%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,54%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,42%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 56,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; 35,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,61; -3,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 49,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,61; -8,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,05; -9,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 42,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,4; 7,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,98; -10,48</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,99; 18,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,74; 6,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 1,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 11,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 8,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,43; 1,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,64; 13,48</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 5,75</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 0,42</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,06%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,16%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,41%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,68; 74,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,57; 26,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,32; 8,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,8; 74,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,32; 54,46</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,02; 8,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,81; 66,89</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,41; 28,1</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,49; 1,85</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 7,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 0,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; -2,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 4,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 0,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; -2,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 5,27</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; -0,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,25; -2,52</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,24%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,85%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,63; 37,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,34; 1,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,58; -11,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,6; 35,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,41; 1,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,56; -15,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,47; 31,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,17; -2,6</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,4; -15,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,36</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 3,09</t>
+          <t>-8,46; 3,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 0,4</t>
+          <t>-7,33; 0,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 0,27</t>
+          <t>-6,73; 0,58</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,45%</t>
+          <t>-31,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-47,42%</t>
+          <t>-49,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-37,46%</t>
+          <t>-36,41%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 40,81</t>
+          <t>-68,49; 38,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,81; 14,64</t>
+          <t>-76,64; 10,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 4,25</t>
+          <t>-62,88; 11,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-3,39</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,11</t>
+          <t>-7,57; 1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,54</t>
+          <t>-7,73; 0,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,78</t>
+          <t>-6,42; 0,05</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,0%</t>
+          <t>-20,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,86%</t>
+          <t>-31,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,04%</t>
+          <t>-27,18%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 17,94</t>
+          <t>-48,36; 15,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 15,83</t>
+          <t>-60,51; 0,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 7,67</t>
+          <t>-47,15; -0,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-5,31</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -2,32</t>
+          <t>-11,54; -2,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -0,93</t>
+          <t>-7,53; -0,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -2,58</t>
+          <t>-8,0; -2,64</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-36,0%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>-32,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>-34,42%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,76; -14,39</t>
+          <t>-54,72; -16,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,21; -7,32</t>
+          <t>-50,14; -6,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,22; -18,09</t>
+          <t>-47,57; -18,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,96</t>
+          <t>-17,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,12</t>
+          <t>-13,8</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -8,91</t>
+          <t>-25,25; -11,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,59; -6,5</t>
+          <t>-14,99; -6,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,48; -8,36</t>
+          <t>-18,67; -10,13</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-50,7%</t>
+          <t>-62,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-52,52%</t>
+          <t>-54,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,34%</t>
+          <t>-58,45%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,43; -37,14</t>
+          <t>-83,15; -43,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,95; -38,83</t>
+          <t>-65,31; -40,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,34; -40,6</t>
+          <t>-76,16; -47,14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-6,14</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,46; -0,77</t>
+          <t>-12,58; -0,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -1,7</t>
+          <t>-11,69; -1,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -2,15</t>
+          <t>-10,15; -2,18</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-23,99%</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-31,37%</t>
+          <t>-31,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-26,42%</t>
+          <t>-26,65%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -3,2</t>
+          <t>-41,09; -3,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-47,05; -9,59</t>
+          <t>-47,15; -9,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,98; -10,48</t>
+          <t>-39,19; -10,6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11,43</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-9,39</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-8,99</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,99; 18,01</t>
+          <t>-0,05; 18,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 6,72</t>
+          <t>-11,51; 5,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 1,94</t>
+          <t>-13,54; 0,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,76; 11,7</t>
+          <t>-3,45; 10,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,39</t>
+          <t>-8,47; 5,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 1,52</t>
+          <t>-19,04; -2,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,64; 13,48</t>
+          <t>1,02; 12,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,75</t>
+          <t>-8,05; 2,62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 0,42</t>
+          <t>-18,87; -3,47</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>-8,57%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>-20,68%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>-11,25%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-15,13%</t>
+          <t>-47,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-14,41%</t>
+          <t>-36,95%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,68; 74,54</t>
+          <t>-0,45; 72,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 26,59</t>
+          <t>-33,53; 23,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 8,3</t>
+          <t>-37,91; 2,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,8; 74,42</t>
+          <t>-14,47; 63,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 54,46</t>
+          <t>-36,97; 34,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 8,65</t>
+          <t>-81,35; -14,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,81; 66,89</t>
+          <t>3,9; 59,67</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 28,1</t>
+          <t>-30,25; 11,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 1,85</t>
+          <t>-67,87; -15,63</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>15,08</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>10,27</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,08</t>
+          <t>4,26; 26,41</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,25</t>
+          <t>-6,62; 13,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,44; -2,15</t>
+          <t>-8,68; 9,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,88</t>
+          <t>2,11; 17,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,24</t>
+          <t>0,22; 17,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -2,04</t>
+          <t>-4,48; 7,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,27</t>
+          <t>6,42; 18,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,44</t>
+          <t>-0,37; 13,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -2,52</t>
+          <t>-2,76; 7,01</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>61,1%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-21,24%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-11,31%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>61,43%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>10,67%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>12,88; 146,21</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-23,25; 69,42</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 50,76</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>9,99; 145,05</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 133,88</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-19,74; 63,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>26,58; 111,26</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 79,08</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 44,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-5,49</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-4,17</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-4,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 7,08</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 0,25</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; -3,12</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 4,88</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 0,24</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; -2,53</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 5,27</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; -0,44</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; -3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-10,49%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-27,5%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>19,47%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-11,31%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-28,39%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-10,6%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-27,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>11,63; 37,63</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-19,34; 1,36</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-30,58; -11,34</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-43,67; -16,52</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>6,6; 35,07</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-22,41; 1,9</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-34,56; -15,19</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-42,32; -18,18</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>12,47; 31,82</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-19,17; -2,6</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-29,4; -15,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-37,51; -18,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 7,34</t>
+          <t>-1,64; 7,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 2,66</t>
+          <t>-6,33; 3,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 3,45</t>
+          <t>-8,5; 3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 9,69</t>
+          <t>1,18; 10,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 4,54</t>
+          <t>-2,78; 4,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,25</t>
+          <t>-7,27; 0,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,68</t>
+          <t>0,28; 7,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,7</t>
+          <t>-3,6; 2,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 0,58</t>
+          <t>-6,59; 0,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 80,84</t>
+          <t>-14,0; 85,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,52; 31,05</t>
+          <t>-47,44; 36,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,49; 38,38</t>
+          <t>-67,93; 38,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,31; 156,23</t>
+          <t>10,85; 176,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 79,19</t>
+          <t>-28,22; 86,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,64; 10,96</t>
+          <t>-78,09; 8,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 96,85</t>
+          <t>2,4; 89,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 34,94</t>
+          <t>-32,39; 29,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 11,11</t>
+          <t>-63,51; 15,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,91</t>
+          <t>0,02; 9,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,56</t>
+          <t>-4,01; 4,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,92</t>
+          <t>-7,67; 2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,8</t>
+          <t>-3,04; 4,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,96</t>
+          <t>-2,69; 5,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 0,01</t>
+          <t>-7,71; 0,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 5,82</t>
+          <t>-0,17; 5,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,48</t>
+          <t>-2,22; 3,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,05</t>
+          <t>-6,72; -0,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 75,45</t>
+          <t>-0,86; 78,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 37,16</t>
+          <t>-25,69; 40,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 15,51</t>
+          <t>-49,49; 19,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 53,22</t>
+          <t>-23,31; 52,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 53,15</t>
+          <t>-21,1; 59,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,51; 0,07</t>
+          <t>-60,94; 7,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 54,88</t>
+          <t>-1,51; 53,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 33,28</t>
+          <t>-16,05; 33,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,15; -0,1</t>
+          <t>-50,35; -1,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 9,25</t>
+          <t>-1,16; 9,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -0,18</t>
+          <t>-8,73; 0,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -2,66</t>
+          <t>-11,5; -2,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,12</t>
+          <t>-2,27; 5,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,39</t>
+          <t>-6,07; 1,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; -0,77</t>
+          <t>-7,53; -0,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 6,13</t>
+          <t>-0,43; 5,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -0,24</t>
+          <t>-6,1; -0,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; -2,64</t>
+          <t>-8,22; -2,68</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 56,03</t>
+          <t>-5,43; 56,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,82; -1,1</t>
+          <t>-41,46; 3,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,72; -16,14</t>
+          <t>-54,43; -13,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 46,66</t>
+          <t>-15,48; 46,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 13,75</t>
+          <t>-41,84; 14,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,14; -6,58</t>
+          <t>-50,28; -6,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 44,59</t>
+          <t>-2,91; 41,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,64; -1,65</t>
+          <t>-36,63; -0,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -18,78</t>
+          <t>-47,78; -19,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 2,81</t>
+          <t>-8,86; 3,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -3,37</t>
+          <t>-15,0; -3,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,25; -11,07</t>
+          <t>-27,34; -11,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 3,23</t>
+          <t>-7,04; 3,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,19; -3,71</t>
+          <t>-12,57; -2,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,99; -6,79</t>
+          <t>-15,5; -7,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 1,6</t>
+          <t>-6,03; 2,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -5,02</t>
+          <t>-12,49; -4,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,67; -10,13</t>
+          <t>-19,14; -10,43</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 11,95</t>
+          <t>-28,6; 13,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,53; -11,87</t>
+          <t>-48,72; -14,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,15; -43,17</t>
+          <t>-84,38; -43,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 18,5</t>
+          <t>-32,24; 19,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-57,62; -21,35</t>
+          <t>-55,46; -17,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,31; -40,93</t>
+          <t>-65,66; -40,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 7,59</t>
+          <t>-23,61; 10,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -22,77</t>
+          <t>-49,24; -21,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-76,16; -47,14</t>
+          <t>-75,82; -47,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 12,62</t>
+          <t>-1,94; 12,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 7,94</t>
+          <t>-6,62; 6,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -0,84</t>
+          <t>-12,55; -0,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 8,43</t>
+          <t>-4,36; 8,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -1,64</t>
+          <t>-12,87; -1,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,69; -1,68</t>
+          <t>-11,61; -1,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 8,79</t>
+          <t>-0,5; 8,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 1,49</t>
+          <t>-8,13; 0,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -2,18</t>
+          <t>-10,46; -2,35</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 56,47</t>
+          <t>-6,97; 57,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 35,42</t>
+          <t>-22,24; 30,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,09; -3,48</t>
+          <t>-41,0; -1,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 49,02</t>
+          <t>-18,83; 50,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-54,61; -8,74</t>
+          <t>-53,84; -9,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-47,15; -9,58</t>
+          <t>-47,95; -10,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 42,69</t>
+          <t>-2,43; 43,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 7,62</t>
+          <t>-31,91; 4,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,19; -10,6</t>
+          <t>-39,37; -11,78</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 18,2</t>
+          <t>-0,11; 18,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 5,63</t>
+          <t>-11,49; 6,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 0,6</t>
+          <t>-13,77; 0,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 10,55</t>
+          <t>-2,85; 10,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 5,62</t>
+          <t>-8,98; 4,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -2,89</t>
+          <t>-19,41; -2,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,02; 12,52</t>
+          <t>0,68; 11,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,62</t>
+          <t>-7,61; 3,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -3,47</t>
+          <t>-16,88; -2,99</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 72,28</t>
+          <t>-1,04; 72,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 23,44</t>
+          <t>-33,76; 23,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 2,84</t>
+          <t>-39,63; 3,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 63,85</t>
+          <t>-12,28; 63,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 34,3</t>
+          <t>-37,75; 27,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,35; -14,21</t>
+          <t>-80,39; -12,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,9; 59,67</t>
+          <t>2,33; 52,69</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 11,97</t>
+          <t>-28,04; 15,02</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-67,87; -15,63</t>
+          <t>-67,39; -13,22</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,26; 26,41</t>
+          <t>5,05; 26,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 13,38</t>
+          <t>-6,26; 13,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 9,01</t>
+          <t>-9,11; 8,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,11; 17,39</t>
+          <t>2,07; 17,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,22; 17,28</t>
+          <t>1,0; 17,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 7,78</t>
+          <t>-3,83; 8,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,42; 18,5</t>
+          <t>5,8; 18,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 13,43</t>
+          <t>0,04; 13,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 7,01</t>
+          <t>-2,94; 6,92</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>12,88; 146,21</t>
+          <t>16,11; 141,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 69,42</t>
+          <t>-21,03; 71,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 50,76</t>
+          <t>-28,27; 43,31</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,99; 145,05</t>
+          <t>8,8; 139,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,89; 133,88</t>
+          <t>3,0; 132,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 63,3</t>
+          <t>-18,21; 66,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>26,58; 111,26</t>
+          <t>24,46; 108,68</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 79,08</t>
+          <t>-0,28; 80,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 44,03</t>
+          <t>-13,89; 43,01</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,08</t>
+          <t>2,71; 7,2</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,25</t>
+          <t>-4,14; 0,14</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -3,12</t>
+          <t>-8,86; -3,18</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,88</t>
+          <t>0,96; 4,68</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,24</t>
+          <t>-3,79; 0,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -2,53</t>
+          <t>-6,6; -2,49</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,27</t>
+          <t>2,38; 5,38</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,44</t>
+          <t>-3,29; -0,37</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -3,04</t>
+          <t>-6,54; -3,18</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>11,63; 37,63</t>
+          <t>12,62; 38,29</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 1,36</t>
+          <t>-19,79; 0,77</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-43,67; -16,52</t>
+          <t>-43,77; -16,69</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,6; 35,07</t>
+          <t>6,15; 34,4</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 1,9</t>
+          <t>-23,66; 1,08</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -18,18</t>
+          <t>-42,44; -18,24</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>12,47; 31,82</t>
+          <t>12,99; 32,41</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-19,17; -2,6</t>
+          <t>-18,37; -2,27</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-37,51; -18,56</t>
+          <t>-37,57; -19,33</t>
         </is>
       </c>
     </row>
